--- a/medicine/Enfance/Où_est_Charlie__/Où_est_Charlie__.xlsx
+++ b/medicine/Enfance/Où_est_Charlie__/Où_est_Charlie__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O%C3%B9_est_Charlie_%3F</t>
+          <t>Où_est_Charlie_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Où est Charlie ? (Where's Wally? au Royaume-Uni et en Australie, Where's Waldo? aux États-Unis et au Canada anglophone) est une série de livres-jeux britannique créée par Martin Handford où le lecteur doit réussir à retrouver un personnage, Charlie, à l'intérieur d'une image. La difficulté vient du fait que les endroits où se trouve Charlie sont très colorés, et surtout remplis de personnages et d'objets divers. Il y a également d'autres personnages déguisés comme Charlie, ce qui augmente encore la difficulté.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>O%C3%B9_est_Charlie_%3F</t>
+          <t>Où_est_Charlie_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlie est né en 1987. Il a été créé par le dessinateur britannique Martin Handford, né à Londres en 1956, qui a commencé sa carrière comme illustrateur commercial avec pour spécialité les scènes de foule.
-La série Où est Charlie ? a été publiée dans 38 pays et en plus de 30 langues. Les aventures de Charlie sont un énorme succès international[1].
+La série Où est Charlie ? a été publiée dans 38 pays et en plus de 30 langues. Les aventures de Charlie sont un énorme succès international.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O%C3%B9_est_Charlie_%3F</t>
+          <t>Où_est_Charlie_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +560,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Principaux personnages
-Ces personnages[2] sont à rechercher dans toutes les scènes :
+          <t>Principaux personnages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ces personnages sont à rechercher dans toutes les scènes :
 Charlie, un jeune homme grand et mince aux cheveux bruns portant des lunettes de vue. Il est habillé avec un bonnet blanc à pompon rouge et un sweat-shirt à rayures blanches et rouges, un pantalon bleu, des chaussures marron. Il s'appuie sur une canne.
 Félicie, amie de Charlie, habillée avec une jupe d'un bleu parfois plus clair que le pantalon de Charlie, un bonnet identique à celui de Charlie, des collants à rayures rouges et blanches et des chaussures d'un marron plus clair que celles de Charlie.
 Blanchebarbe, un mage en robe rouge avec un chapeau pointu de magicien bleu, portant une longue barbe blanche et tenant dans sa main un bâton rayé bleu, blanc et rouge.
 Pouah, la version maléfique de Charlie, aux cheveux noirs, portant un bonnet jaune et noir, des lunettes de vue aux verres foncés, une moustache noire, un costume de prisonnier à rayures jaunes et noires et des chaussures noires à guêtres jaunes.
 Ouaf, le chien blanc de Charlie, habillé d'un costume rayé blanc et rouge et du même bonnet que Charlie. On ne voit du chien que la queue, rayée elle aussi de blanc et rouge.
-Les fans de Charlie : d'innombrables enfants habillés en Charlie disséminés dans toutes les pages.
-Objets à retrouver
-Ces objets sont à rechercher dans toutes les scènes :
+Les fans de Charlie : d'innombrables enfants habillés en Charlie disséminés dans toutes les pages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Où_est_Charlie_?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/O%C3%B9_est_Charlie_%3F</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages et objets à retrouver</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Objets à retrouver</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces objets sont à rechercher dans toutes les scènes :
 la clé de Charlie ;
 l'os de Ouaf le chien ;
 l'appareil-photo de Félicie.
@@ -574,31 +627,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>O%C3%B9_est_Charlie_%3F</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/O%C3%B9_est_Charlie_%3F</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Où_est_Charlie_?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/O%C3%B9_est_Charlie_%3F</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Série</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(1987) Où est Charlie ?
 (1988) Où est Charlie ? Charlie remonte le temps
@@ -611,46 +666,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>O%C3%B9_est_Charlie_%3F</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/O%C3%B9_est_Charlie_%3F</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Hors-série</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Où est Charlie ? Le monde des chevaliers
-Où est Charlie ? Le monde des pirates
-Une revue pédagogique nommée Les voyages de Charlie de 19 pages, portant sur la découverte du monde, est parue hebdomadairement pendant 1 an, entre 1997 et 1998, aux éditions Fabbri[3]. Certains numéros étaient vendus avec une cassette audio Radio Charlie racontant les aventures de Charlie et ses amis, reposant sur les lieux du numéro actuel et des deux numéros du magazine à venir. Les numéros pouvaient être rangés dans 4 classeurs de 13 numéros aux couleurs de Charlie. Un atlas était également fourni pour y coller des autocollants, une planche de 6 autocollants était offert dans chaque numéro. Chaque revue comportait à la page centrale un lieu célèbre du globe (Venise, etc.) où Charlie s'était caché[réf. nécessaire].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O%C3%B9_est_Charlie_%3F</t>
+          <t>Où_est_Charlie_?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,14 +687,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Hors-série</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Où est Charlie ? Le monde des chevaliers
+Où est Charlie ? Le monde des pirates
+Une revue pédagogique nommée Les voyages de Charlie de 19 pages, portant sur la découverte du monde, est parue hebdomadairement pendant 1 an, entre 1997 et 1998, aux éditions Fabbri. Certains numéros étaient vendus avec une cassette audio Radio Charlie racontant les aventures de Charlie et ses amis, reposant sur les lieux du numéro actuel et des deux numéros du magazine à venir. Les numéros pouvaient être rangés dans 4 classeurs de 13 numéros aux couleurs de Charlie. Un atlas était également fourni pour y coller des autocollants, une planche de 6 autocollants était offert dans chaque numéro. Chaque revue comportait à la page centrale un lieu célèbre du globe (Venise, etc.) où Charlie s'était caché[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Où_est_Charlie_?</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/O%C3%B9_est_Charlie_%3F</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adaptations dans d'autres médias</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Séries télévisées
-Where's Wally? (titre original)
-Charlie a été adapté à la télévision une première fois en 1991 sur CBS en une série de 13 épisodes de courts dessins animés, où l'enfant devait trouver Charlie en moins d'une minute. En 2004, tous les épisodes sont reparus avec les personnages situés à un endroit différent.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Séries télévisées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Where's Wally? (titre original)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Charlie a été adapté à la télévision une première fois en 1991 sur CBS en une série de 13 épisodes de courts dessins animés, où l'enfant devait trouver Charlie en moins d'une minute. En 2004, tous les épisodes sont reparus avec les personnages situés à un endroit différent.
 Musique : Michael Tavera
 Chanteur générique: Alain Garcia
 Voix françaises :
@@ -680,9 +745,47 @@
 Gérard Dessalles : le narrateur
 Roger Carel : Barbe Blanche et Odlaw (Pouah dans les livres originaux français)
 Jacques Ferrière : voix masculines secondaires
-Évelyne Grandjean : voix féminines secondaires
-Where's Waldo?  (titre original)
-Une seconde adaptation paraît en 2019 sur la chaîne américaine Universal Kids (en).
+Évelyne Grandjean : voix féminines secondaires</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Où_est_Charlie_?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/O%C3%B9_est_Charlie_%3F</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations dans d'autres médias</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Séries télévisées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Where's Waldo?  (titre original)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Une seconde adaptation paraît en 2019 sur la chaîne américaine Universal Kids (en).
 Studio de doublage : Titra Film
 Direction artistique : Olivia Luccioni
 Adaptation : Charlotte Loisier
@@ -691,15 +794,119 @@
 Olivia Luccioni : Charlène
 Stéphane Ronchewski : Barbe Blanche
 Geneviève Doang : Odlulu
-Emmanuel Garijo : Fritz
-Projet de film
-Un film cinéma Where's Waldo était prévu pour 2005, mais a été annulé par la Paramount, la maison-mère de Nickelodeon qui avait prévu de faire l'adaptation.
-Jeux vidéo
-Trois jeux vidéo ont été tirés de Où est Charlie : Where's Waldo? (NES), The Great Waldo Search (NES, Mega Drive, SNES) et Où est Charlie ? Le voyage fantastique (PC, Nintendo Wii, Nintendo DS, iPhone/iPod Touch)[4].
-Autres supports
-Une étudiante canadienne a installé un gigantesque Charlie sur un toit de Vancouver, à retrouver via Google Earth[5].
-En mars 2009, pour le lancement de son service Street View au Royaume-Uni, la société Google avait lancé une quête « Où est Charlie ? » dont le but était de retrouver le personnage parmi les photos prises dans les rues de Londres[6].
-Pour le poisson d'avril de l'année 2018, Google a intégré un jeu « Où est Charlie ? » à son service de cartographie Google Maps[7].
+Emmanuel Garijo : Fritz</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Où_est_Charlie_?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/O%C3%B9_est_Charlie_%3F</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptations dans d'autres médias</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Projet de film</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un film cinéma Where's Waldo était prévu pour 2005, mais a été annulé par la Paramount, la maison-mère de Nickelodeon qui avait prévu de faire l'adaptation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Où_est_Charlie_?</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/O%C3%B9_est_Charlie_%3F</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adaptations dans d'autres médias</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois jeux vidéo ont été tirés de Où est Charlie : Where's Waldo? (NES), The Great Waldo Search (NES, Mega Drive, SNES) et Où est Charlie ? Le voyage fantastique (PC, Nintendo Wii, Nintendo DS, iPhone/iPod Touch).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Où_est_Charlie_?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/O%C3%B9_est_Charlie_%3F</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Adaptations dans d'autres médias</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres supports</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étudiante canadienne a installé un gigantesque Charlie sur un toit de Vancouver, à retrouver via Google Earth.
+En mars 2009, pour le lancement de son service Street View au Royaume-Uni, la société Google avait lancé une quête « Où est Charlie ? » dont le but était de retrouver le personnage parmi les photos prises dans les rues de Londres.
+Pour le poisson d'avril de l'année 2018, Google a intégré un jeu « Où est Charlie ? » à son service de cartographie Google Maps.
 </t>
         </is>
       </c>
